--- a/schedule/schedule_N-03_C-updated_I-021.xlsx
+++ b/schedule/schedule_N-03_C-updated_I-021.xlsx
@@ -725,13 +725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN36"/>
+  <dimension ref="A1:BO36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:66">
+    <row r="1" spans="1:67">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -927,8 +927,11 @@
       <c r="BN1" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:66">
+      <c r="BO1" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +945,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:66">
+    <row r="3" spans="1:67">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1042,44 +1045,44 @@
       <c r="BB3" t="s">
         <v>49</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>52</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>53</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>55</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>56</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
         <v>58</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>60</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>64</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>67</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BL3" t="s">
         <v>68</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BM3" t="s">
         <v>71</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BN3" t="s">
         <v>72</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BO3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
+    <row r="4" spans="1:67">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1191,32 +1194,32 @@
       <c r="BF4" t="s">
         <v>56</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>58</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>60</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>64</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>67</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
         <v>68</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BM4" t="s">
         <v>71</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BN4" t="s">
         <v>72</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BO4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:67">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1331,29 +1334,29 @@
       <c r="BG5" t="s">
         <v>58</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>60</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>64</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BK5" t="s">
         <v>67</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BL5" t="s">
         <v>68</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BM5" t="s">
         <v>71</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BN5" t="s">
         <v>72</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BO5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:66">
+    <row r="6" spans="1:67">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:66">
+    <row r="7" spans="1:67">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:66">
+    <row r="8" spans="1:67">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1424,11 +1427,11 @@
       <c r="AL8" t="s">
         <v>72</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:66">
+    <row r="9" spans="1:67">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1477,11 +1480,11 @@
       <c r="AL9" t="s">
         <v>72</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:66">
+    <row r="10" spans="1:67">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:66">
+    <row r="11" spans="1:67">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1544,11 +1547,11 @@
       <c r="AL11" t="s">
         <v>72</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:66">
+    <row r="12" spans="1:67">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:66">
+    <row r="13" spans="1:67">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1612,7 +1615,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:66">
+    <row r="14" spans="1:67">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:66">
+    <row r="15" spans="1:67">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:66">
+    <row r="16" spans="1:67">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1762,7 +1765,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:66">
+    <row r="17" spans="1:67">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1859,47 +1862,47 @@
       <c r="BA17" t="s">
         <v>43</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
         <v>49</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BD17" t="s">
         <v>52</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BE17" t="s">
         <v>53</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BF17" t="s">
         <v>55</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BG17" t="s">
         <v>56</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="BH17" t="s">
         <v>58</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BI17" t="s">
         <v>60</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BJ17" t="s">
         <v>64</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BK17" t="s">
         <v>67</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BL17" t="s">
         <v>68</v>
       </c>
-      <c r="BL17" t="s">
+      <c r="BM17" t="s">
         <v>71</v>
       </c>
-      <c r="BM17" t="s">
+      <c r="BN17" t="s">
         <v>72</v>
       </c>
-      <c r="BN17" t="s">
+      <c r="BO17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:66">
+    <row r="18" spans="1:67">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:66">
+    <row r="19" spans="1:67">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:66">
+    <row r="20" spans="1:67">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:66">
+    <row r="21" spans="1:67">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:66">
+    <row r="22" spans="1:67">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:66">
+    <row r="23" spans="1:67">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:66">
+    <row r="24" spans="1:67">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:66">
+    <row r="25" spans="1:67">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:66">
+    <row r="26" spans="1:67">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:66">
+    <row r="27" spans="1:67">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:66">
+    <row r="28" spans="1:67">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:66">
+    <row r="29" spans="1:67">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:66">
+    <row r="30" spans="1:67">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:66">
+    <row r="31" spans="1:67">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:66">
+    <row r="32" spans="1:67">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:40">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2830,14 +2833,14 @@
       <c r="AK33" t="s">
         <v>71</v>
       </c>
-      <c r="AL33" t="s">
+      <c r="AM33" t="s">
         <v>72</v>
       </c>
-      <c r="AM33" t="s">
+      <c r="AN33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:40">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:40">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2900,11 +2903,11 @@
       <c r="AL35" t="s">
         <v>72</v>
       </c>
-      <c r="AM35" t="s">
+      <c r="AN35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:40">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2956,7 +2959,7 @@
       <c r="AL36" t="s">
         <v>72</v>
       </c>
-      <c r="AM36" t="s">
+      <c r="AN36" t="s">
         <v>75</v>
       </c>
     </row>
